--- a/local/public/uploads/consignments (15).xlsx
+++ b/local/public/uploads/consignments (15).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B3922B-9697-4EFC-9AA0-AAC1B55C2CB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF217074-6996-49F2-B3D2-BB4256CC752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -79,32 +79,41 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P1210300008</t>
-  </si>
-  <si>
-    <t>คุณชฎาพร4 พิกุล</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54/325 90/16 ( หลังตลาดเทวราช )    บางบ่อ บ้านระกาศ สมุทรปราการ 10560   </t>
-  </si>
-  <si>
-    <t>P1210300017</t>
-  </si>
-  <si>
-    <t>ไม่ได้ระบุที่อยู่ กรุณาตรวจสอบ</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>bbbbbbbbb</t>
+    <t>P100001</t>
+  </si>
+  <si>
+    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
+  </si>
+  <si>
+    <t>54/325 90/16 ( หลังตลาดเทวราช ) 4 ซอย ถนน , ต.บ้านระกาศ , อ.บางบ่อ, จ.สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>Tel. 0818683278</t>
+  </si>
+  <si>
+    <t>O121102700003</t>
+  </si>
+  <si>
+    <t>ทดสอบ ชอบทดลอง</t>
+  </si>
+  <si>
+    <t>123, ต.แขวงลาดพร้าว , อ.เขตลาดพร้าว, จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>Tel. 1234567890, 1234567890</t>
+  </si>
+  <si>
+    <t>ssssssssss</t>
+  </si>
+  <si>
+    <t>ccccccccccccc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -115,6 +124,13 @@
       <sz val="11"/>
       <color rgb="FF002699"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,29 +464,29 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -532,8 +549,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
+      <c r="A2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -544,16 +561,37 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
+      <c r="G2">
+        <v>10560</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
+      <c r="G3">
+        <v>10230</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/uploads/consignments (15).xlsx
+++ b/local/public/uploads/consignments (15).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF217074-6996-49F2-B3D2-BB4256CC752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B3922B-9697-4EFC-9AA0-AAC1B55C2CB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -79,41 +79,32 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100001</t>
-  </si>
-  <si>
-    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
-  </si>
-  <si>
-    <t>54/325 90/16 ( หลังตลาดเทวราช ) 4 ซอย ถนน , ต.บ้านระกาศ , อ.บางบ่อ, จ.สมุทรปราการ</t>
-  </si>
-  <si>
-    <t>Tel. 0818683278</t>
-  </si>
-  <si>
-    <t>O121102700003</t>
-  </si>
-  <si>
-    <t>ทดสอบ ชอบทดลอง</t>
-  </si>
-  <si>
-    <t>123, ต.แขวงลาดพร้าว , อ.เขตลาดพร้าว, จ.กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>Tel. 1234567890, 1234567890</t>
-  </si>
-  <si>
-    <t>ssssssssss</t>
-  </si>
-  <si>
-    <t>ccccccccccccc</t>
+    <t>P1210300008</t>
+  </si>
+  <si>
+    <t>คุณชฎาพร4 พิกุล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54/325 90/16 ( หลังตลาดเทวราช )    บางบ่อ บ้านระกาศ สมุทรปราการ 10560   </t>
+  </si>
+  <si>
+    <t>P1210300017</t>
+  </si>
+  <si>
+    <t>ไม่ได้ระบุที่อยู่ กรุณาตรวจสอบ</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>bbbbbbbbb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,13 +115,6 @@
       <sz val="11"/>
       <color rgb="FF002699"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,10 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,29 +447,29 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="96" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -549,8 +532,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
+      <c r="A2" t="s">
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -561,37 +544,16 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2">
-        <v>10560</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
+      <c r="A3" t="s">
+        <v>25</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>10230</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
